--- a/data/trans_orig/P51_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P51_2-Clase-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6722</v>
+        <v>6814</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02279735393845937</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0708425058343079</v>
+        <v>0.07181735235515127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6644</v>
+        <v>7293</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01732894172437321</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05322975219671941</v>
+        <v>0.05842387695412381</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4829</v>
+        <v>4240</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009875660941240779</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05089712400271952</v>
+        <v>0.04468291773564335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5660</v>
+        <v>5815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03877054019869557</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1890259294634822</v>
+        <v>0.1942058624079179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6692</v>
+        <v>7451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01680668947562904</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05360888575884209</v>
+        <v>0.05969650423205107</v>
       </c>
     </row>
     <row r="6">
@@ -923,19 +923,19 @@
         <v>91781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85645</v>
+        <v>86806</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93941</v>
+        <v>93946</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9673269851202999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9026614101512664</v>
+        <v>0.9148891621131396</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9900975005751106</v>
+        <v>0.9901422223290338</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -944,7 +944,7 @@
         <v>28780</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24281</v>
+        <v>24126</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>29941</v>
@@ -953,7 +953,7 @@
         <v>0.9612294598013045</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8109740705365185</v>
+        <v>0.8057941375920857</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -965,19 +965,19 @@
         <v>120561</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114763</v>
+        <v>114801</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123699</v>
+        <v>123689</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9658643687999977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9194166841464304</v>
+        <v>0.9197148042035456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9910020514241596</v>
+        <v>0.9909230503762356</v>
       </c>
     </row>
     <row r="8">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5401</v>
+        <v>6483</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02643993483049936</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1324981822479017</v>
+        <v>0.1590381991509378</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5532</v>
+        <v>5398</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.008468165766420722</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04346129970159451</v>
+        <v>0.04240747856615514</v>
       </c>
     </row>
     <row r="10">
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7035</v>
+        <v>6036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01254706547838473</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08131059605558184</v>
+        <v>0.06976887541184831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5330</v>
+        <v>5504</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008528499206030186</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04187684116446154</v>
+        <v>0.04324382929469305</v>
       </c>
     </row>
     <row r="12">
@@ -1242,7 +1242,7 @@
         <v>85429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79479</v>
+        <v>80478</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>86514</v>
@@ -1251,7 +1251,7 @@
         <v>0.9874529345216153</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9186894039444172</v>
+        <v>0.9302311245881495</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>39687</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35364</v>
+        <v>34282</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>40765</v>
@@ -1272,7 +1272,7 @@
         <v>0.9735600651695007</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8675018177520982</v>
+        <v>0.8409618008490625</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>125116</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>120524</v>
+        <v>119857</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>127279</v>
@@ -1293,7 +1293,7 @@
         <v>0.9830033350275491</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9469303075962477</v>
+        <v>0.9416908938676112</v>
       </c>
       <c r="W12" s="6" t="n">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4838</v>
+        <v>5942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008414289986251983</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03946464579340488</v>
+        <v>0.04846489071152547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6668</v>
+        <v>6777</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1201088203450856</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4109353485289119</v>
+        <v>0.4176694387863011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9895</v>
+        <v>10013</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02146962253508458</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07127994201837094</v>
+        <v>0.07212992620388581</v>
       </c>
     </row>
     <row r="15">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5015</v>
+        <v>4940</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007965723321767074</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04090614772880468</v>
+        <v>0.04029460230743355</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5479</v>
+        <v>4427</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00703465564438339</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03946831860536389</v>
+        <v>0.03188764324235149</v>
       </c>
     </row>
     <row r="16">
@@ -1522,19 +1522,19 @@
         <v>2738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7372</v>
+        <v>8032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02233117751886967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006602937100884052</v>
+        <v>0.006716714318685859</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0601302767520101</v>
+        <v>0.06551806775349102</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>2738</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7678</v>
+        <v>7034</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01972101435529091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006031938681845269</v>
+        <v>0.005935317922946025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0553116588212088</v>
+        <v>0.05066668078747046</v>
       </c>
     </row>
     <row r="17">
@@ -1585,19 +1585,19 @@
         <v>117848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112563</v>
+        <v>111505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120754</v>
+        <v>120819</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9612888091731112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9181781008181417</v>
+        <v>0.909550630599862</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9849882717759165</v>
+        <v>0.9855206526084535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1606,7 +1606,7 @@
         <v>14277</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9558</v>
+        <v>9449</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>16226</v>
@@ -1615,7 +1615,7 @@
         <v>0.8798911796549144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5890646514710881</v>
+        <v>0.5823305612136989</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1627,19 +1627,19 @@
         <v>132125</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>123818</v>
+        <v>125049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136055</v>
+        <v>136798</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9517747074652412</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8919339787056706</v>
+        <v>0.9008029196482602</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9800848623582872</v>
+        <v>0.9854362588357951</v>
       </c>
     </row>
     <row r="18">
@@ -1731,19 +1731,19 @@
         <v>9299</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4106</v>
+        <v>4073</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19017</v>
+        <v>18826</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04353600879572256</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01922466065570707</v>
+        <v>0.01906995658252692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08903767477934901</v>
+        <v>0.08814388053019905</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1752,19 +1752,19 @@
         <v>3164</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8581</v>
+        <v>9440</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04201502005760475</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01284359406072641</v>
+        <v>0.01297637396446065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1139554631455818</v>
+        <v>0.1253748946464959</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1773,19 +1773,19 @@
         <v>12462</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6398</v>
+        <v>6205</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23002</v>
+        <v>23072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0431395616785733</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02214744919393105</v>
+        <v>0.02148025925914157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07962503352912412</v>
+        <v>0.07986503991856077</v>
       </c>
     </row>
     <row r="20">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5324</v>
+        <v>4842</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00411553652473801</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0249283187695445</v>
+        <v>0.02266899356483935</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5183</v>
+        <v>5965</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01334995535919946</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06883971061535409</v>
+        <v>0.07921370819443556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6721</v>
+        <v>6426</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00652249630933273</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02326685851279743</v>
+        <v>0.02224539817485715</v>
       </c>
     </row>
     <row r="21">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7476</v>
+        <v>8127</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009889836099308462</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03500052255448132</v>
+        <v>0.038048911445352</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7524</v>
+        <v>8304</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007312041200247348</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02604458218067921</v>
+        <v>0.02874547887371614</v>
       </c>
     </row>
     <row r="22">
@@ -1936,19 +1936,19 @@
         <v>201296</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191195</v>
+        <v>190699</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>207479</v>
+        <v>207433</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9424586185802309</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8951642753470244</v>
+        <v>0.8928440923277734</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9714064407831401</v>
+        <v>0.9711922905760465</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -1957,19 +1957,19 @@
         <v>71129</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65175</v>
+        <v>64956</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74185</v>
+        <v>74299</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9446350245831958</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8655622993687994</v>
+        <v>0.8626520694283744</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9852180159540159</v>
+        <v>0.9867323900585577</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>252</v>
@@ -1978,19 +1978,19 @@
         <v>272425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>261664</v>
+        <v>261018</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>279454</v>
+        <v>279815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9430259008118467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9057765036477383</v>
+        <v>0.9035407246584887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9673584670973135</v>
+        <v>0.9686076155554307</v>
       </c>
     </row>
     <row r="23">
@@ -2082,19 +2082,19 @@
         <v>3086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8062</v>
+        <v>8252</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03472691480416846</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01048566270288311</v>
+        <v>0.0102858637805101</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09072677231346465</v>
+        <v>0.09286149419256791</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9730</v>
+        <v>8887</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05995246479746862</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1934064352275524</v>
+        <v>0.1766457848716186</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -2124,19 +2124,19 @@
         <v>6102</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2139</v>
+        <v>2041</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13587</v>
+        <v>14248</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04384574577258463</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01537308129645418</v>
+        <v>0.01466288656652367</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09763312772163811</v>
+        <v>0.1023817372966191</v>
       </c>
     </row>
     <row r="25">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5875</v>
+        <v>5957</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02376199607134112</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1167883281775361</v>
+        <v>0.118417061191821</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5957</v>
+        <v>5893</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008589768140011974</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04280291863955001</v>
+        <v>0.04234361904775524</v>
       </c>
     </row>
     <row r="26">
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4348</v>
+        <v>4793</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009868352125141379</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04893101867792508</v>
+        <v>0.0539416411532931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4487</v>
+        <v>4377</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006301023167403079</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03224424678300805</v>
+        <v>0.03145484080101166</v>
       </c>
     </row>
     <row r="27">
@@ -2279,19 +2279,19 @@
         <v>84896</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>78959</v>
+        <v>79388</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>87728</v>
+        <v>87925</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9554047330706902</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8885873785749316</v>
+        <v>0.893411432395429</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.987270178229227</v>
+        <v>0.9894941366365201</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>43</v>
@@ -2300,19 +2300,19 @@
         <v>46096</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39073</v>
+        <v>39716</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>49158</v>
+        <v>49135</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9162855391311903</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7766830760049849</v>
+        <v>0.789464297974694</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9771562375951393</v>
+        <v>0.9767094934489079</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>126</v>
@@ -2321,19 +2321,19 @@
         <v>130992</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>122749</v>
+        <v>122154</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>135158</v>
+        <v>135259</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9412634629200003</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8820304440441551</v>
+        <v>0.877758832423391</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9711986632135597</v>
+        <v>0.9719257583723298</v>
       </c>
     </row>
     <row r="28">
@@ -2438,19 +2438,19 @@
         <v>5122</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1958</v>
+        <v>1984</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11059</v>
+        <v>11008</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06811112343328134</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02603317919956502</v>
+        <v>0.02638891704847206</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.147059935995878</v>
+        <v>0.1463829175043287</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2459,19 +2459,19 @@
         <v>5122</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11387</v>
+        <v>11559</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03216527294371747</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01244977563192658</v>
+        <v>0.0124077214305601</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07150796578258703</v>
+        <v>0.07258685754028169</v>
       </c>
     </row>
     <row r="30">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6862</v>
+        <v>5887</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02297627760255299</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08165486961822643</v>
+        <v>0.0700543714548726</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6260</v>
+        <v>6380</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02713715161067437</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08325020283193531</v>
+        <v>0.08484442063646408</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2577,19 +2577,19 @@
         <v>3972</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9087</v>
+        <v>8967</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02494123782357685</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006193992616991699</v>
+        <v>0.006228692856285037</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05706866447416259</v>
+        <v>0.05631086340623197</v>
       </c>
     </row>
     <row r="32">
@@ -2606,7 +2606,7 @@
         <v>82107</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>77176</v>
+        <v>78151</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>84038</v>
@@ -2615,7 +2615,7 @@
         <v>0.9770237223974471</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9183451303817732</v>
+        <v>0.9299456285451274</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2627,19 +2627,19 @@
         <v>68036</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61890</v>
+        <v>61470</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72098</v>
+        <v>72171</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9047517249560443</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8230192791485642</v>
+        <v>0.8174357757627361</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9587563120947122</v>
+        <v>0.9597346582746713</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>149</v>
@@ -2648,19 +2648,19 @@
         <v>150144</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>143128</v>
+        <v>143089</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>154420</v>
+        <v>154415</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9428934892327057</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.898839121034878</v>
+        <v>0.8985939707290845</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9697504804556728</v>
+        <v>0.9697189272181073</v>
       </c>
     </row>
     <row r="33">
@@ -2752,19 +2752,19 @@
         <v>15579</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9070</v>
+        <v>8954</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>26469</v>
+        <v>27537</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02256291403642706</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01313552299743297</v>
+        <v>0.01296819063861532</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03833420173433658</v>
+        <v>0.03988145597210689</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -2773,19 +2773,19 @@
         <v>14328</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7236</v>
+        <v>7256</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24112</v>
+        <v>23652</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04979655523020632</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0251478819277734</v>
+        <v>0.02521838021995134</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08379868199864487</v>
+        <v>0.08220178155579326</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>25</v>
@@ -2794,19 +2794,19 @@
         <v>29907</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>19886</v>
+        <v>20248</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>44425</v>
+        <v>45117</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03057358778824634</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02032902658211087</v>
+        <v>0.02069903097855274</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04541464455686597</v>
+        <v>0.04612224287471098</v>
       </c>
     </row>
     <row r="35">
@@ -2823,19 +2823,19 @@
         <v>2793</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7602</v>
+        <v>7457</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.004044458356208609</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001268042485590738</v>
+        <v>0.001266327633661513</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01101017362830814</v>
+        <v>0.01079957728147238</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2844,19 +2844,19 @@
         <v>3361</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9169</v>
+        <v>8307</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01168243998147346</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00351618705098789</v>
+        <v>0.003498379142848106</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03186756505249355</v>
+        <v>0.02886907469240194</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -2865,19 +2865,19 @@
         <v>6154</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2140</v>
+        <v>2484</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12509</v>
+        <v>12775</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.006291142098827762</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.002188155435101787</v>
+        <v>0.002539296186228553</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01278802100270727</v>
+        <v>0.01305988534427264</v>
       </c>
     </row>
     <row r="36">
@@ -2894,19 +2894,19 @@
         <v>8743</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3936</v>
+        <v>4036</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16716</v>
+        <v>15534</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01266273525077658</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005700854249818096</v>
+        <v>0.005844774255272678</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02421008708209576</v>
+        <v>0.02249782120149239</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7156</v>
+        <v>7183</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007092215266974527</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02486838636580882</v>
+        <v>0.02496340159747462</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>11</v>
@@ -2936,19 +2936,19 @@
         <v>10784</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5621</v>
+        <v>5839</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>18687</v>
+        <v>18564</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01102418762136811</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005746114244993225</v>
+        <v>0.005969489589997197</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01910316985113243</v>
+        <v>0.01897717179447368</v>
       </c>
     </row>
     <row r="37">
@@ -2965,19 +2965,19 @@
         <v>663357</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>651034</v>
+        <v>650740</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>672101</v>
+        <v>672237</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9607298923565878</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.942882914714661</v>
+        <v>0.9424561080046095</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9733929712126985</v>
+        <v>0.9735902823020773</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>253</v>
@@ -2986,19 +2986,19 @@
         <v>268006</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>256741</v>
+        <v>257243</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>276099</v>
+        <v>276184</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9314287895213457</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8922808584963461</v>
+        <v>0.8940249168712037</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9595556729352617</v>
+        <v>0.9598519512837533</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>884</v>
@@ -3007,19 +3007,19 @@
         <v>931363</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>915357</v>
+        <v>916200</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>944841</v>
+        <v>943202</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9521110824915578</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9357486259512237</v>
+        <v>0.9366105148070916</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9658893312877455</v>
+        <v>0.9642142456547032</v>
       </c>
     </row>
     <row r="38">
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6605</v>
+        <v>6887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02394222113439222</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07463731457034685</v>
+        <v>0.07781726513846349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6808</v>
+        <v>5724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03455368857806565</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1262501596799151</v>
+        <v>0.1061436955302233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -3395,19 +3395,19 @@
         <v>3982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11007</v>
+        <v>9866</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02795983755265539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006950823102914977</v>
+        <v>0.007094754197879811</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07728745326078658</v>
+        <v>0.06927056911182837</v>
       </c>
     </row>
     <row r="5">
@@ -3518,7 +3518,7 @@
         <v>86381</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81895</v>
+        <v>81613</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>88500</v>
@@ -3527,7 +3527,7 @@
         <v>0.9760577788656077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9253626854296534</v>
+        <v>0.9221827348615357</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>52060</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47115</v>
+        <v>48199</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>53923</v>
@@ -3548,7 +3548,7 @@
         <v>0.9654463114219344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8737498403200851</v>
+        <v>0.8938563044697767</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -3560,19 +3560,19 @@
         <v>138440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131415</v>
+        <v>132556</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141432</v>
+        <v>141412</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9720401624473446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9227125467392131</v>
+        <v>0.9307294308881716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9930491768970849</v>
+        <v>0.9929052458021201</v>
       </c>
     </row>
     <row r="8">
@@ -3664,19 +3664,19 @@
         <v>4696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1079</v>
+        <v>1036</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11729</v>
+        <v>10123</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0464649219813563</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01067892561527452</v>
+        <v>0.01024924450809635</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1160487973292998</v>
+        <v>0.100164723287146</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6845</v>
+        <v>5975</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03414176906228785</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1220214538886306</v>
+        <v>0.1065142347906724</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -3706,7 +3706,7 @@
         <v>6611</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2972</v>
+        <v>2577</v>
       </c>
       <c r="T9" s="5" t="n">
         <v>14084</v>
@@ -3715,10 +3715,10 @@
         <v>0.04206621426971645</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01891302295379807</v>
+        <v>0.01639568877192775</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08960996620721712</v>
+        <v>0.08961379392186147</v>
       </c>
     </row>
     <row r="10">
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4060</v>
+        <v>5081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009729237634417017</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04016880151181308</v>
+        <v>0.05027250029838192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5035</v>
+        <v>5891</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006256419201346571</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03203306522811967</v>
+        <v>0.03748017340547112</v>
       </c>
     </row>
     <row r="12">
@@ -3845,19 +3845,19 @@
         <v>95387</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88280</v>
+        <v>89493</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99058</v>
+        <v>99093</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9438058403842267</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8734848482596597</v>
+        <v>0.885495250763785</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9801292954383017</v>
+        <v>0.9804756905710886</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -3866,7 +3866,7 @@
         <v>54185</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49255</v>
+        <v>50125</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>56100</v>
@@ -3875,7 +3875,7 @@
         <v>0.9658582309377122</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8779785461113695</v>
+        <v>0.8934857652093261</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3887,19 +3887,19 @@
         <v>149571</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>141457</v>
+        <v>141866</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>153591</v>
+        <v>154135</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.951677366528937</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9000495690873177</v>
+        <v>0.9026499535220716</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9772511107014816</v>
+        <v>0.9807170709812693</v>
       </c>
     </row>
     <row r="13">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5275</v>
+        <v>4213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03599582600404452</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1865171781413605</v>
+        <v>0.1489790824668846</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5097</v>
+        <v>5975</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008017835457043973</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04014452693245616</v>
+        <v>0.04705424345585953</v>
       </c>
     </row>
     <row r="15">
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6274</v>
+        <v>7252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01263686632528276</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06357507331160905</v>
+        <v>0.07348608000813692</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6383</v>
+        <v>5282</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009822086776193024</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05026706221428642</v>
+        <v>0.0415975065742669</v>
       </c>
     </row>
     <row r="17">
@@ -4164,7 +4164,7 @@
         <v>97443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92416</v>
+        <v>91438</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>98690</v>
@@ -4173,7 +4173,7 @@
         <v>0.9873631336747173</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9364249266883908</v>
+        <v>0.9265139199918654</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>27264</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23007</v>
+        <v>24069</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>28282</v>
@@ -4194,7 +4194,7 @@
         <v>0.9640041739959555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8134828218586394</v>
+        <v>0.8510209175331156</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>124707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119279</v>
+        <v>119878</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>126972</v>
@@ -4215,7 +4215,7 @@
         <v>0.982160077766763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9394105601453103</v>
+        <v>0.9441276381857363</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -4310,19 +4310,19 @@
         <v>6709</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2975</v>
+        <v>2914</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13457</v>
+        <v>13686</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02945605130609833</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01306284153757692</v>
+        <v>0.01279469619236294</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05908574781458445</v>
+        <v>0.06009221714915286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -4331,19 +4331,19 @@
         <v>7173</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2900</v>
+        <v>3405</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14332</v>
+        <v>14176</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06472009393042273</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02617085674132528</v>
+        <v>0.0307200591538839</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1293234440949037</v>
+        <v>0.1279129583721507</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -4352,19 +4352,19 @@
         <v>13881</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7593</v>
+        <v>7664</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23922</v>
+        <v>22835</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04099879970379953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0224261186222985</v>
+        <v>0.02263567756745202</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07065416044021985</v>
+        <v>0.06744238899351282</v>
       </c>
     </row>
     <row r="20">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5566</v>
+        <v>6268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004895658983372647</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02443994448445386</v>
+        <v>0.02752286997289417</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4761</v>
+        <v>4926</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008384409857306901</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04296331442440152</v>
+        <v>0.04444716478517738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6891</v>
+        <v>7211</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006037608985789727</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0203535629030025</v>
+        <v>0.02129775555884535</v>
       </c>
     </row>
     <row r="21">
@@ -4452,19 +4452,19 @@
         <v>3359</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9282</v>
+        <v>8923</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01474659973889975</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004095627106749521</v>
+        <v>0.004038115604996613</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04075561820302735</v>
+        <v>0.03917809708656856</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4519</v>
+        <v>4479</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.008135148881522364</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04077725055992921</v>
+        <v>0.04041514391282405</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -4494,19 +4494,19 @@
         <v>4260</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1080</v>
+        <v>1330</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10351</v>
+        <v>11698</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01258251677758229</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003188810894542024</v>
+        <v>0.003928968060880529</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03057035053574464</v>
+        <v>0.03454929508776249</v>
       </c>
     </row>
     <row r="22">
@@ -4523,19 +4523,19 @@
         <v>216573</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>209493</v>
+        <v>208644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>221675</v>
+        <v>221812</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9509016899716293</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9198178798215307</v>
+        <v>0.9160883310631959</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9733061458431977</v>
+        <v>0.9739043596321351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -4544,19 +4544,19 @@
         <v>101822</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93432</v>
+        <v>95409</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106208</v>
+        <v>106365</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.918760347330748</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8430582173191202</v>
+        <v>0.8608991372501859</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9583429153315465</v>
+        <v>0.9597607648895043</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>307</v>
@@ -4565,19 +4565,19 @@
         <v>318395</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>308160</v>
+        <v>307986</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>325762</v>
+        <v>325662</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9403810745328285</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9101502951368133</v>
+        <v>0.9096371245333278</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9621379843819304</v>
+        <v>0.9618435918859429</v>
       </c>
     </row>
     <row r="23">
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6780</v>
+        <v>6354</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03941167111363885</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1331031872572459</v>
+        <v>0.1247399577062305</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7926</v>
+        <v>7077</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01176713685853317</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04645590469255855</v>
+        <v>0.04148227083008584</v>
       </c>
     </row>
     <row r="25">
@@ -4839,7 +4839,7 @@
         <v>48929</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44157</v>
+        <v>44583</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>50937</v>
@@ -4848,7 +4848,7 @@
         <v>0.9605883288863611</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8668968127427533</v>
+        <v>0.8752600422937699</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>168597</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>162679</v>
+        <v>163528</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>170605</v>
@@ -4869,7 +4869,7 @@
         <v>0.9882328631414669</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9535440953074424</v>
+        <v>0.9585177291699142</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5926</v>
+        <v>5912</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0238984218354808</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07316608871259472</v>
+        <v>0.0729908330750098</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4707</v>
+        <v>5728</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01674926040512245</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06803035223235621</v>
+        <v>0.08278938144477577</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -5006,19 +5006,19 @@
         <v>3095</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8566</v>
+        <v>8535</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02060494889477434</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006389310239648842</v>
+        <v>0.006357823333913555</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05703783431685132</v>
+        <v>0.056827496293713</v>
       </c>
     </row>
     <row r="30">
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5068</v>
+        <v>5617</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01372697136884792</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06257088742690793</v>
+        <v>0.06934662816145375</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -5103,19 +5103,19 @@
         <v>2948</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>935</v>
+        <v>955</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8035</v>
+        <v>7955</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04260630988975129</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01351704608878987</v>
+        <v>0.01380427370066608</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1161369301008066</v>
+        <v>0.1149741947075109</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -5124,19 +5124,19 @@
         <v>4060</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1013</v>
+        <v>1112</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9474</v>
+        <v>9493</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0270310939419102</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006743573654126064</v>
+        <v>0.00740262752087155</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06308417616186342</v>
+        <v>0.06321173453220388</v>
       </c>
     </row>
     <row r="32">
@@ -5153,19 +5153,19 @@
         <v>77949</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>72802</v>
+        <v>72670</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>80043</v>
+        <v>80052</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9623746067956713</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8988198504533029</v>
+        <v>0.8971956209327948</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9882177615089118</v>
+        <v>0.9883339416025978</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>66</v>
@@ -5174,19 +5174,19 @@
         <v>65079</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>58925</v>
+        <v>58970</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>68166</v>
+        <v>67306</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9406444297051263</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8516966435033385</v>
+        <v>0.8523372795131888</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9852609141454421</v>
+        <v>0.9728201802846199</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>138</v>
@@ -5195,19 +5195,19 @@
         <v>143029</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>136761</v>
+        <v>136573</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>147126</v>
+        <v>147059</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9523639571633155</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9106257576304425</v>
+        <v>0.9093747955584663</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9796463619933576</v>
+        <v>0.979201675219091</v>
       </c>
     </row>
     <row r="33">
@@ -5299,19 +5299,19 @@
         <v>15459</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8847</v>
+        <v>8802</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24663</v>
+        <v>25325</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02157097013766993</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01234491441236859</v>
+        <v>0.01228112054258845</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03441242392450129</v>
+        <v>0.03533649952274041</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -5320,19 +5320,19 @@
         <v>15136</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8790</v>
+        <v>8703</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25169</v>
+        <v>24155</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04098968496940411</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02380503495844453</v>
+        <v>0.02356874800383254</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0681612690241384</v>
+        <v>0.06541506394047299</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>30</v>
@@ -5341,19 +5341,19 @@
         <v>30595</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>21102</v>
+        <v>20960</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>43240</v>
+        <v>43236</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02817401133672104</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01943244495609803</v>
+        <v>0.01930137506777515</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03981833890468595</v>
+        <v>0.03981454221415807</v>
       </c>
     </row>
     <row r="35">
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5579</v>
+        <v>6704</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001555812472569922</v>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.00778441915832784</v>
+        <v>0.00935440026586022</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5606</v>
+        <v>5272</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.002516441687221979</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01518266422020695</v>
+        <v>0.01427815121199715</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6862</v>
+        <v>6328</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.001882459953431722</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.006319211875730162</v>
+        <v>0.005827442704187909</v>
       </c>
     </row>
     <row r="36">
@@ -5441,19 +5441,19 @@
         <v>6701</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2448</v>
+        <v>3029</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14360</v>
+        <v>15025</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009349962204193513</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003415974024621517</v>
+        <v>0.004226863697786744</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02003731877494105</v>
+        <v>0.02096442190340914</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -5462,19 +5462,19 @@
         <v>3849</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9916</v>
+        <v>10418</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01042466414209487</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002709719193887847</v>
+        <v>0.002695265857313742</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02685477933495451</v>
+        <v>0.02821300212839674</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -5483,19 +5483,19 @@
         <v>10550</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5245</v>
+        <v>5022</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19424</v>
+        <v>18876</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.009715398394701131</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004830196104397808</v>
+        <v>0.00462482014974469</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01788708240406583</v>
+        <v>0.01738197906783273</v>
       </c>
     </row>
     <row r="37">
@@ -5512,19 +5512,19 @@
         <v>693400</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>681945</v>
+        <v>681782</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>701915</v>
+        <v>701746</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9675232551855666</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9515404704166076</v>
+        <v>0.9513125817094522</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.979405370799449</v>
+        <v>0.9791692706304532</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>346</v>
@@ -5533,19 +5533,19 @@
         <v>349340</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>338100</v>
+        <v>339611</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>357196</v>
+        <v>356898</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.946069209201279</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9156302172201176</v>
+        <v>0.9197230927681518</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9673443168835157</v>
+        <v>0.9665384510963845</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>987</v>
@@ -5554,19 +5554,19 @@
         <v>1042740</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1027073</v>
+        <v>1029048</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1054068</v>
+        <v>1054334</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9602281303151461</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9458013919262603</v>
+        <v>0.9476202783295119</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9706597661067305</v>
+        <v>0.9709055511477475</v>
       </c>
     </row>
     <row r="38">
